--- a/excel/CMC_Fall_2018_bookstore_list.xlsx
+++ b/excel/CMC_Fall_2018_bookstore_list.xlsx
@@ -10,7 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$280</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$B$280</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$R$2</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="631">
   <si>
     <t>Division</t>
   </si>
@@ -1888,6 +1889,33 @@
   </si>
   <si>
     <t>Ibn Arabi</t>
+  </si>
+  <si>
+    <t>Von Hallberg</t>
+  </si>
+  <si>
+    <t>Depts</t>
+  </si>
+  <si>
+    <t>Instructors</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>Quotes</t>
+  </si>
+  <si>
+    <t>Delineator</t>
+  </si>
+  <si>
+    <t>End Comma</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : </t>
   </si>
 </sst>
 </file>
@@ -1993,7 +2021,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2001,8 +2029,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2020,14 +2074,47 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2364,11 +2451,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I280"/>
+  <dimension ref="A1:S280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2376,9 +2463,10 @@
     <col min="5" max="5" width="9.1640625" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.5" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:19">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2406,8 +2494,23 @@
       <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="N1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O1" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>623</v>
+      </c>
+      <c r="R1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="15" t="s">
         <v>13</v>
       </c>
@@ -2433,8 +2536,31 @@
         <v>182</v>
       </c>
       <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="N2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="15" t="str">
+        <f>CONCATENATE("""",N2,""""," : ",P2,",")</f>
+        <v>"Aitel" : 1,</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="R2" s="15" t="str">
+        <f>CONCATENATE("""",Q2,""""," : ",S2,",")</f>
+        <v>"ARBC" : 1,</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
@@ -2460,8 +2586,35 @@
         <v>524</v>
       </c>
       <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="17"/>
+      <c r="K3" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>625</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="O3" s="15" t="str">
+        <f t="shared" ref="O3:O66" si="0">CONCATENATE("""",N3,""""," : ",P3,",")</f>
+        <v>"Altamirano" : 2,</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="R3" s="15" t="str">
+        <f t="shared" ref="R3:R20" si="1">CONCATENATE("""",Q3,""""," : ",S3,",")</f>
+        <v>"ARBC" : 2,</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
@@ -2487,8 +2640,35 @@
         <v>543</v>
       </c>
       <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="17"/>
+      <c r="K4" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="O4" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Antecol" : 3,</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>"ECON" : 3,</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="15" t="s">
         <v>13</v>
       </c>
@@ -2514,8 +2694,35 @@
         <v>212</v>
       </c>
       <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="17"/>
+      <c r="K5" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>629</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O5" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Appel" : 4,</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>"FHS" : 4,</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
@@ -2541,8 +2748,31 @@
         <v>215</v>
       </c>
       <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="N6" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="O6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Ascher" : 5,</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>"FREN" : 5,</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
@@ -2568,8 +2798,31 @@
         <v>242</v>
       </c>
       <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="N7" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="O7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Batta" : 6,</v>
+      </c>
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="R7" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>"FWS" : 6,</v>
+      </c>
+      <c r="S7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
@@ -2595,8 +2848,31 @@
         <v>452</v>
       </c>
       <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="N8" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="O8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Bessette" : 7,</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>"GOVT" : 7,</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="13" t="s">
         <v>13</v>
       </c>
@@ -2624,8 +2900,31 @@
       <c r="I9" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="N9" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="O9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Birkenbeuel" : 8,</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>"HIST" : 8,</v>
+      </c>
+      <c r="S9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
@@ -2653,8 +2952,31 @@
       <c r="I10" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="N10" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="O10" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Bjerk" : 9,</v>
+      </c>
+      <c r="P10">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="R10" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>"KORE" : 9,</v>
+      </c>
+      <c r="S10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="15" t="s">
         <v>13</v>
       </c>
@@ -2682,8 +3004,31 @@
       <c r="I11" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="N11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Bjornlie" : 10,</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="R11" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>"LEAD" : 10,</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
@@ -2711,8 +3056,31 @@
       <c r="I12" s="15" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="N12" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="O12" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Bowman" : 11,</v>
+      </c>
+      <c r="P12">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>"LIT" : 11,</v>
+      </c>
+      <c r="S12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="15" t="s">
         <v>13</v>
       </c>
@@ -2738,8 +3106,31 @@
         <v>237</v>
       </c>
       <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="N13" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="O13" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Brown" : 12,</v>
+      </c>
+      <c r="P13">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>"MATH" : 12,</v>
+      </c>
+      <c r="S13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
@@ -2767,8 +3158,31 @@
       <c r="I14" s="15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="N14" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="O14" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Busch" : 13,</v>
+      </c>
+      <c r="P14">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="R14" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>"PHIL" : 13,</v>
+      </c>
+      <c r="S14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="15" t="s">
         <v>13</v>
       </c>
@@ -2796,8 +3210,31 @@
       <c r="I15" s="15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="N15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Charlop" : 14,</v>
+      </c>
+      <c r="P15">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="R15" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>"PONT" : 14,</v>
+      </c>
+      <c r="S15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="15" t="s">
         <v>13</v>
       </c>
@@ -2825,8 +3262,31 @@
       <c r="I16" s="15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="N16" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="O16" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Cody" : 15,</v>
+      </c>
+      <c r="P16">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="R16" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>"PORT" : 15,</v>
+      </c>
+      <c r="S16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="15" t="s">
         <v>13</v>
       </c>
@@ -2854,8 +3314,31 @@
       <c r="I17" s="15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="N17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Conger" : 16,</v>
+      </c>
+      <c r="P17">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="R17" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>"PPE" : 16,</v>
+      </c>
+      <c r="S17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="15" t="s">
         <v>13</v>
       </c>
@@ -2881,8 +3364,31 @@
         <v>171</v>
       </c>
       <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="N18" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="O18" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Cook" : 17,</v>
+      </c>
+      <c r="P18">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>"PSYC" : 17,</v>
+      </c>
+      <c r="S18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="15" t="s">
         <v>13</v>
       </c>
@@ -2910,8 +3416,31 @@
       <c r="I19" s="15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="N19" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="O19" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Crockett" : 18,</v>
+      </c>
+      <c r="P19">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="R19" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>"RLST" : 18,</v>
+      </c>
+      <c r="S19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="15" t="s">
         <v>13</v>
       </c>
@@ -2939,8 +3468,31 @@
       <c r="I20" s="15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="N20" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="O20" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Day" : 19,</v>
+      </c>
+      <c r="P20">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="R20" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>"SPAN" : 19,</v>
+      </c>
+      <c r="S20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="15" t="s">
         <v>13</v>
       </c>
@@ -2966,8 +3518,21 @@
         <v>517</v>
       </c>
       <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="N21" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="O21" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Espinosa" : 20,</v>
+      </c>
+      <c r="P21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -2995,8 +3560,21 @@
       <c r="I22" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="N22" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O22" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Evans" : 21,</v>
+      </c>
+      <c r="P22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
@@ -3024,8 +3602,21 @@
       <c r="I23" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="N23" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="O23" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Farrell" : 22,</v>
+      </c>
+      <c r="P23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="4" t="s">
         <v>13</v>
       </c>
@@ -3053,8 +3644,21 @@
       <c r="I24" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="N24" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="O24" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Favretto" : 23,</v>
+      </c>
+      <c r="P24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="15" t="s">
         <v>13</v>
       </c>
@@ -3082,8 +3686,21 @@
       <c r="I25" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="N25" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="O25" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Filson" : 24,</v>
+      </c>
+      <c r="P25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="6" t="s">
         <v>13</v>
       </c>
@@ -3111,8 +3728,21 @@
       <c r="I26" s="6" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="N26" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="O26" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Finley" : 25,</v>
+      </c>
+      <c r="P26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="6" t="s">
         <v>13</v>
       </c>
@@ -3140,8 +3770,21 @@
       <c r="I27" s="6" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="N27" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="O27" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Frangieh" : 26,</v>
+      </c>
+      <c r="P27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="6" t="s">
         <v>13</v>
       </c>
@@ -3169,8 +3812,21 @@
       <c r="I28" s="6" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="N28" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="O28" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Fukshansky" : 27,</v>
+      </c>
+      <c r="P28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
@@ -3198,8 +3854,21 @@
       <c r="I29" s="6" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="N29" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="O29" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Ganguly" : 28,</v>
+      </c>
+      <c r="P29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="15" t="s">
         <v>13</v>
       </c>
@@ -3227,8 +3896,21 @@
       <c r="I30" s="15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="N30" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="O30" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Gann" : 29,</v>
+      </c>
+      <c r="P30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="13" t="s">
         <v>13</v>
       </c>
@@ -3256,8 +3938,21 @@
       <c r="I31" s="13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="N31" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="O31" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Gelman" : 30,</v>
+      </c>
+      <c r="P31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="13" t="s">
         <v>13</v>
       </c>
@@ -3285,8 +3980,21 @@
       <c r="I32" s="13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="N32" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="O32" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Gilbert" : 31,</v>
+      </c>
+      <c r="P32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="15" t="s">
         <v>13</v>
       </c>
@@ -3314,8 +4022,21 @@
       <c r="I33" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="N33" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="O33" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Gonzales" : 32,</v>
+      </c>
+      <c r="P33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="13" t="s">
         <v>13</v>
       </c>
@@ -3343,8 +4064,21 @@
       <c r="I34" s="13" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="N34" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="O34" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Hamburg" : 33,</v>
+      </c>
+      <c r="P34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="15" t="s">
         <v>13</v>
       </c>
@@ -3372,8 +4106,21 @@
       <c r="I35" s="15" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="N35" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O35" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Harris" : 34,</v>
+      </c>
+      <c r="P35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="15" t="s">
         <v>13</v>
       </c>
@@ -3399,8 +4146,21 @@
         <v>79</v>
       </c>
       <c r="I36" s="15"/>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="N36" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="O36" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Helland" : 35,</v>
+      </c>
+      <c r="P36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="15" t="s">
         <v>13</v>
       </c>
@@ -3426,8 +4186,21 @@
         <v>94</v>
       </c>
       <c r="I37" s="15"/>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="N37" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="O37" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Hernandez" : 36,</v>
+      </c>
+      <c r="P37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="15" t="s">
         <v>13</v>
       </c>
@@ -3453,8 +4226,21 @@
         <v>102</v>
       </c>
       <c r="I38" s="15"/>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="N38" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="O38" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Hughson" : 37,</v>
+      </c>
+      <c r="P38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="15" t="s">
         <v>13</v>
       </c>
@@ -3480,8 +4266,21 @@
         <v>257</v>
       </c>
       <c r="I39" s="15"/>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="N39" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="O39" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Ibragimov" : 38,</v>
+      </c>
+      <c r="P39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="15" t="s">
         <v>13</v>
       </c>
@@ -3507,8 +4306,21 @@
         <v>297</v>
       </c>
       <c r="I40" s="15"/>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="N40" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="O40" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Jones" : 39,</v>
+      </c>
+      <c r="P40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="15" t="s">
         <v>13</v>
       </c>
@@ -3534,8 +4346,21 @@
         <v>450</v>
       </c>
       <c r="I41" s="15"/>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="N41" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="O41" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Kanaya" : 40,</v>
+      </c>
+      <c r="P41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="15" t="s">
         <v>13</v>
       </c>
@@ -3561,8 +4386,21 @@
         <v>113</v>
       </c>
       <c r="I42" s="15"/>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="N42" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="O42" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Kao" : 41,</v>
+      </c>
+      <c r="P42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="15" t="s">
         <v>13</v>
       </c>
@@ -3590,8 +4428,21 @@
       <c r="I43" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="N43" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="O43" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Keil" : 42,</v>
+      </c>
+      <c r="P43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="15" t="s">
         <v>13</v>
       </c>
@@ -3617,8 +4468,21 @@
         <v>398</v>
       </c>
       <c r="I44" s="15"/>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="N44" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="O44" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Kim" : 43,</v>
+      </c>
+      <c r="P44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="15" t="s">
         <v>13</v>
       </c>
@@ -3646,8 +4510,21 @@
       <c r="I45" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="N45" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="O45" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Kind" : 44,</v>
+      </c>
+      <c r="P45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="15" t="s">
         <v>13</v>
       </c>
@@ -3673,8 +4550,21 @@
         <v>478</v>
       </c>
       <c r="I46" s="15"/>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="N46" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="O46" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Krauss" : 45,</v>
+      </c>
+      <c r="P46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="15" t="s">
         <v>13</v>
       </c>
@@ -3700,8 +4590,21 @@
         <v>89</v>
       </c>
       <c r="I47" s="15"/>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="N47" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="O47" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Kreines" : 46,</v>
+      </c>
+      <c r="P47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="15" t="s">
         <v>13</v>
       </c>
@@ -3727,8 +4630,21 @@
         <v>221</v>
       </c>
       <c r="I48" s="15"/>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="N48" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="O48" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Lobis" : 47,</v>
+      </c>
+      <c r="P48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="15" t="s">
         <v>13</v>
       </c>
@@ -3754,8 +4670,21 @@
         <v>439</v>
       </c>
       <c r="I49" s="15"/>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="N49" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="O49" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Magilke" : 48,</v>
+      </c>
+      <c r="P49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="15" t="s">
         <v>13</v>
       </c>
@@ -3783,8 +4712,21 @@
       <c r="I50" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="N50" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O50" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Martin" : 49,</v>
+      </c>
+      <c r="P50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="15" t="s">
         <v>13</v>
       </c>
@@ -3810,8 +4752,21 @@
         <v>545</v>
       </c>
       <c r="I51" s="15"/>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="N51" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="O51" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Martinez" : 50,</v>
+      </c>
+      <c r="P51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" s="15" t="s">
         <v>13</v>
       </c>
@@ -3837,8 +4792,21 @@
         <v>550</v>
       </c>
       <c r="I52" s="15"/>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="N52" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="O52" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Mestaz" : 51,</v>
+      </c>
+      <c r="P52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" s="15" t="s">
         <v>13</v>
       </c>
@@ -3866,8 +4834,21 @@
       <c r="I53" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="N53" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O53" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Miller" : 52,</v>
+      </c>
+      <c r="P53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" s="15" t="s">
         <v>13</v>
       </c>
@@ -3893,8 +4874,21 @@
         <v>573</v>
       </c>
       <c r="I54" s="15"/>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="N54" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O54" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Morrison" : 53,</v>
+      </c>
+      <c r="P54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" s="15" t="s">
         <v>13</v>
       </c>
@@ -3920,8 +4914,21 @@
         <v>291</v>
       </c>
       <c r="I55" s="15"/>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="N55" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="O55" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Nadon" : 54,</v>
+      </c>
+      <c r="P55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" s="15" t="s">
         <v>13</v>
       </c>
@@ -3949,8 +4956,21 @@
       <c r="I56" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="N56" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="O56" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Nelson" : 55,</v>
+      </c>
+      <c r="P56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" s="15" t="s">
         <v>13</v>
       </c>
@@ -3976,8 +4996,21 @@
         <v>444</v>
       </c>
       <c r="I57" s="15"/>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="N57" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="O57" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Nichols" : 56,</v>
+      </c>
+      <c r="P57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" s="15" t="s">
         <v>13</v>
       </c>
@@ -4003,8 +5036,21 @@
         <v>164</v>
       </c>
       <c r="I58" s="15"/>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="N58" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="O58" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Olfati" : 57,</v>
+      </c>
+      <c r="P58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" s="15" t="s">
         <v>13</v>
       </c>
@@ -4030,8 +5076,21 @@
         <v>347</v>
       </c>
       <c r="I59" s="15"/>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="N59" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="O59" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Ozbeklik" : 58,</v>
+      </c>
+      <c r="P59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" s="15" t="s">
         <v>13</v>
       </c>
@@ -4057,8 +5116,21 @@
         <v>348</v>
       </c>
       <c r="I60" s="15"/>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="N60" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O60" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Petropoulos" : 59,</v>
+      </c>
+      <c r="P60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" s="15" t="s">
         <v>13</v>
       </c>
@@ -4084,8 +5156,21 @@
         <v>350</v>
       </c>
       <c r="I61" s="15"/>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="N61" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O61" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Pitney" : 60,</v>
+      </c>
+      <c r="P61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="15" t="s">
         <v>13</v>
       </c>
@@ -4111,8 +5196,21 @@
         <v>351</v>
       </c>
       <c r="I62" s="15"/>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="N62" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="O62" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Rajczi" : 61,</v>
+      </c>
+      <c r="P62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="15" t="s">
         <v>13</v>
       </c>
@@ -4138,8 +5236,21 @@
         <v>358</v>
       </c>
       <c r="I63" s="15"/>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="N63" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="O63" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Raviv" : 62,</v>
+      </c>
+      <c r="P63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" s="15" t="s">
         <v>13</v>
       </c>
@@ -4165,8 +5276,21 @@
         <v>394</v>
       </c>
       <c r="I64" s="15"/>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="N64" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O64" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Rentz" : 63,</v>
+      </c>
+      <c r="P64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" s="15" t="s">
         <v>13</v>
       </c>
@@ -4192,8 +5316,21 @@
         <v>100</v>
       </c>
       <c r="I65" s="15"/>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="N65" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="O65" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Rose" : 64,</v>
+      </c>
+      <c r="P65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" s="15" t="s">
         <v>13</v>
       </c>
@@ -4219,8 +5356,21 @@
         <v>104</v>
       </c>
       <c r="I66" s="15"/>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="N66" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="O66" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Rosett" : 65,</v>
+      </c>
+      <c r="P66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" s="15" t="s">
         <v>13</v>
       </c>
@@ -4246,8 +5396,21 @@
         <v>159</v>
       </c>
       <c r="I67" s="15"/>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="N67" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="O67" s="15" t="str">
+        <f t="shared" ref="O67:O85" si="2">CONCATENATE("""",N67,""""," : ",P67,",")</f>
+        <v>"Rossum" : 66,</v>
+      </c>
+      <c r="P67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="15" t="s">
         <v>13</v>
       </c>
@@ -4273,8 +5436,21 @@
         <v>307</v>
       </c>
       <c r="I68" s="15"/>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="N68" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="O68" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>"Sarzynski" : 67,</v>
+      </c>
+      <c r="P68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" s="15" t="s">
         <v>13</v>
       </c>
@@ -4300,8 +5476,21 @@
         <v>346</v>
       </c>
       <c r="I69" s="15"/>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="N69" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="O69" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>"Schroeder" : 68,</v>
+      </c>
+      <c r="P69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="15" t="s">
         <v>13</v>
       </c>
@@ -4327,8 +5516,21 @@
         <v>390</v>
       </c>
       <c r="I70" s="15"/>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="N70" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="O70" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>"Shelton" : 69,</v>
+      </c>
+      <c r="P70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" s="15" t="s">
         <v>13</v>
       </c>
@@ -4354,8 +5556,21 @@
         <v>479</v>
       </c>
       <c r="I71" s="15"/>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="N71" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="O71" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>"Sinha" : 70,</v>
+      </c>
+      <c r="P71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" s="15" t="s">
         <v>13</v>
       </c>
@@ -4381,8 +5596,21 @@
         <v>553</v>
       </c>
       <c r="I72" s="15"/>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="N72" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="O72" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>"Skinner" : 71,</v>
+      </c>
+      <c r="P72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" s="15" t="s">
         <v>13</v>
       </c>
@@ -4410,8 +5638,21 @@
       <c r="I73" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="N73" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O73" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>"Staff" : 72,</v>
+      </c>
+      <c r="P73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="15" t="s">
         <v>13</v>
       </c>
@@ -4439,8 +5680,21 @@
       <c r="I74" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="N74" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O74" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>"Taylor" : 73,</v>
+      </c>
+      <c r="P74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" s="15" t="s">
         <v>13</v>
       </c>
@@ -4468,8 +5722,21 @@
       <c r="I75" s="15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="N75" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="O75" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>"Thompson" : 74,</v>
+      </c>
+      <c r="P75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" s="15" t="s">
         <v>13</v>
       </c>
@@ -4497,8 +5764,21 @@
       <c r="I76" s="15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="N76" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="O76" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>"Tocoian" : 75,</v>
+      </c>
+      <c r="P76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" s="15" t="s">
         <v>13</v>
       </c>
@@ -4524,8 +5804,21 @@
         <v>537</v>
       </c>
       <c r="I77" s="15"/>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="N77" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="O77" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>"Umanath" : 76,</v>
+      </c>
+      <c r="P77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" s="15" t="s">
         <v>13</v>
       </c>
@@ -4551,8 +5844,21 @@
         <v>541</v>
       </c>
       <c r="I78" s="15"/>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="N78" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="O78" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>"Valencia" : 77,</v>
+      </c>
+      <c r="P78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" s="13" t="s">
         <v>13</v>
       </c>
@@ -4578,8 +5884,21 @@
         <v>586</v>
       </c>
       <c r="I79" s="13"/>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="N79" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O79" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>"Valenza" : 78,</v>
+      </c>
+      <c r="P79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" s="15" t="s">
         <v>13</v>
       </c>
@@ -4605,8 +5924,21 @@
         <v>510</v>
       </c>
       <c r="I80" s="15"/>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="N80" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="O80" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>"Velji" : 79,</v>
+      </c>
+      <c r="P80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" s="15" t="s">
         <v>13</v>
       </c>
@@ -4632,8 +5964,21 @@
         <v>512</v>
       </c>
       <c r="I81" s="15"/>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="N81" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O81" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>"Venit-Shelton" : 80,</v>
+      </c>
+      <c r="P81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" s="15" t="s">
         <v>13</v>
       </c>
@@ -4659,8 +6004,21 @@
         <v>514</v>
       </c>
       <c r="I82" s="15"/>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="N82" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="O82" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>"Von Hallberg" : 81,</v>
+      </c>
+      <c r="P82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" s="15" t="s">
         <v>13</v>
       </c>
@@ -4686,8 +6044,21 @@
         <v>539</v>
       </c>
       <c r="I83" s="15"/>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+      <c r="N83" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="O83" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>"Warner" : 82,</v>
+      </c>
+      <c r="P83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84" s="15" t="s">
         <v>13</v>
       </c>
@@ -4713,8 +6084,21 @@
         <v>194</v>
       </c>
       <c r="I84" s="15"/>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="N84" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="O84" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>"Wyman" : 83,</v>
+      </c>
+      <c r="P84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" s="15" t="s">
         <v>13</v>
       </c>
@@ -4740,8 +6124,21 @@
         <v>367</v>
       </c>
       <c r="I85" s="15"/>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17"/>
+      <c r="N85" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O85" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>"Yu" : 84,</v>
+      </c>
+      <c r="P85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" s="15" t="s">
         <v>13</v>
       </c>
@@ -4767,8 +6164,11 @@
         <v>505</v>
       </c>
       <c r="I86" s="15"/>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" s="15" t="s">
         <v>13</v>
       </c>
@@ -4794,8 +6194,11 @@
         <v>92</v>
       </c>
       <c r="I87" s="15"/>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88" s="15" t="s">
         <v>13</v>
       </c>
@@ -4823,8 +6226,11 @@
       <c r="I88" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89" s="15" t="s">
         <v>13</v>
       </c>
@@ -4850,8 +6256,11 @@
         <v>225</v>
       </c>
       <c r="I89" s="15"/>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90" s="15" t="s">
         <v>13</v>
       </c>
@@ -4877,8 +6286,11 @@
         <v>241</v>
       </c>
       <c r="I90" s="15"/>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" s="15" t="s">
         <v>13</v>
       </c>
@@ -4904,8 +6316,11 @@
         <v>254</v>
       </c>
       <c r="I91" s="15"/>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92" s="15" t="s">
         <v>13</v>
       </c>
@@ -4931,8 +6346,11 @@
         <v>342</v>
       </c>
       <c r="I92" s="15"/>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" s="15" t="s">
         <v>13</v>
       </c>
@@ -4960,8 +6378,11 @@
       <c r="I93" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94" s="15" t="s">
         <v>13</v>
       </c>
@@ -4987,8 +6408,11 @@
         <v>320</v>
       </c>
       <c r="I94" s="15"/>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" s="15" t="s">
         <v>13</v>
       </c>
@@ -5014,8 +6438,11 @@
         <v>341</v>
       </c>
       <c r="I95" s="15"/>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" s="15" t="s">
         <v>13</v>
       </c>
@@ -5041,8 +6468,11 @@
         <v>191</v>
       </c>
       <c r="I96" s="15"/>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="15" t="s">
         <v>13</v>
       </c>
@@ -5068,8 +6498,11 @@
         <v>219</v>
       </c>
       <c r="I97" s="15"/>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="13" t="s">
         <v>13</v>
       </c>
@@ -5095,8 +6528,11 @@
         <v>588</v>
       </c>
       <c r="I98" s="13"/>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18"/>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="15" t="s">
         <v>13</v>
       </c>
@@ -5122,8 +6558,11 @@
         <v>548</v>
       </c>
       <c r="I99" s="15"/>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="15" t="s">
         <v>13</v>
       </c>
@@ -5149,8 +6588,11 @@
         <v>239</v>
       </c>
       <c r="I100" s="15"/>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="15" t="s">
         <v>13</v>
       </c>
@@ -5176,8 +6618,11 @@
         <v>283</v>
       </c>
       <c r="I101" s="15"/>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="17"/>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="15" t="s">
         <v>13</v>
       </c>
@@ -5203,8 +6648,11 @@
         <v>284</v>
       </c>
       <c r="I102" s="15"/>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="17"/>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="15" t="s">
         <v>13</v>
       </c>
@@ -5232,8 +6680,11 @@
       <c r="I103" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="17"/>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="15" t="s">
         <v>13</v>
       </c>
@@ -5261,8 +6712,11 @@
       <c r="I104" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="17"/>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="15" t="s">
         <v>13</v>
       </c>
@@ -5288,8 +6742,11 @@
         <v>168</v>
       </c>
       <c r="I105" s="15"/>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="15" t="s">
         <v>13</v>
       </c>
@@ -5315,8 +6772,11 @@
         <v>535</v>
       </c>
       <c r="I106" s="15"/>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="15" t="s">
         <v>13</v>
       </c>
@@ -5342,8 +6802,11 @@
         <v>21</v>
       </c>
       <c r="I107" s="15"/>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="15" t="s">
         <v>13</v>
       </c>
@@ -5369,8 +6832,11 @@
         <v>486</v>
       </c>
       <c r="I108" s="15"/>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" s="15" t="s">
         <v>13</v>
       </c>
@@ -5398,8 +6864,11 @@
       <c r="I109" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="8" t="s">
         <v>13</v>
       </c>
@@ -5427,8 +6896,11 @@
       <c r="I110" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="J110" s="22"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="22"/>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="15" t="s">
         <v>13</v>
       </c>
@@ -5454,8 +6926,11 @@
         <v>204</v>
       </c>
       <c r="I111" s="15"/>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="8" t="s">
         <v>13</v>
       </c>
@@ -5483,8 +6958,11 @@
       <c r="I112" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="J112" s="22"/>
+      <c r="K112" s="22"/>
+      <c r="L112" s="22"/>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" s="15" t="s">
         <v>13</v>
       </c>
@@ -5512,8 +6990,11 @@
       <c r="I113" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" s="15" t="s">
         <v>13</v>
       </c>
@@ -5541,8 +7022,11 @@
       <c r="I114" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="17"/>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" s="15" t="s">
         <v>13</v>
       </c>
@@ -5570,8 +7054,11 @@
       <c r="I115" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="17"/>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" s="15" t="s">
         <v>13</v>
       </c>
@@ -5597,8 +7084,11 @@
         <v>289</v>
       </c>
       <c r="I116" s="15"/>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="17"/>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" s="15" t="s">
         <v>13</v>
       </c>
@@ -5624,8 +7114,11 @@
         <v>322</v>
       </c>
       <c r="I117" s="15"/>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="17"/>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="15" t="s">
         <v>13</v>
       </c>
@@ -5651,8 +7144,11 @@
         <v>388</v>
       </c>
       <c r="I118" s="15"/>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="17"/>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="15" t="s">
         <v>13</v>
       </c>
@@ -5678,8 +7174,11 @@
         <v>399</v>
       </c>
       <c r="I119" s="15"/>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="J119" s="17"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="17"/>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" s="15" t="s">
         <v>13</v>
       </c>
@@ -5707,8 +7206,11 @@
       <c r="I120" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="17"/>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" s="15" t="s">
         <v>13</v>
       </c>
@@ -5734,8 +7236,11 @@
         <v>385</v>
       </c>
       <c r="I121" s="15"/>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
+      <c r="L121" s="17"/>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" s="15" t="s">
         <v>13</v>
       </c>
@@ -5763,8 +7268,11 @@
       <c r="I122" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="17"/>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" s="15" t="s">
         <v>13</v>
       </c>
@@ -5792,8 +7300,11 @@
       <c r="I123" s="15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
+      <c r="L123" s="17"/>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" s="15" t="s">
         <v>13</v>
       </c>
@@ -5819,8 +7330,11 @@
         <v>568</v>
       </c>
       <c r="I124" s="15"/>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="J124" s="17"/>
+      <c r="K124" s="17"/>
+      <c r="L124" s="17"/>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" s="13" t="s">
         <v>13</v>
       </c>
@@ -5848,8 +7362,11 @@
       <c r="I125" s="13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="J125" s="18"/>
+      <c r="K125" s="18"/>
+      <c r="L125" s="18"/>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" s="13" t="s">
         <v>13</v>
       </c>
@@ -5877,8 +7394,11 @@
       <c r="I126" s="13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="J126" s="18"/>
+      <c r="K126" s="18"/>
+      <c r="L126" s="18"/>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" s="13" t="s">
         <v>13</v>
       </c>
@@ -5904,8 +7424,11 @@
         <v>617</v>
       </c>
       <c r="I127" s="15"/>
-    </row>
-    <row r="128" spans="1:9">
+      <c r="J127" s="17"/>
+      <c r="K127" s="17"/>
+      <c r="L127" s="17"/>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" s="15" t="s">
         <v>13</v>
       </c>
@@ -5931,8 +7454,11 @@
         <v>151</v>
       </c>
       <c r="I128" s="15"/>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="J128" s="17"/>
+      <c r="K128" s="17"/>
+      <c r="L128" s="17"/>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" s="13" t="s">
         <v>13</v>
       </c>
@@ -5958,8 +7484,11 @@
         <v>594</v>
       </c>
       <c r="I129" s="13"/>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="J129" s="18"/>
+      <c r="K129" s="18"/>
+      <c r="L129" s="18"/>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" s="13" t="s">
         <v>13</v>
       </c>
@@ -5987,8 +7516,11 @@
       <c r="I130" s="13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="J130" s="18"/>
+      <c r="K130" s="18"/>
+      <c r="L130" s="18"/>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" s="15" t="s">
         <v>13</v>
       </c>
@@ -6014,8 +7546,11 @@
         <v>188</v>
       </c>
       <c r="I131" s="15"/>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="J131" s="17"/>
+      <c r="K131" s="17"/>
+      <c r="L131" s="17"/>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" s="15" t="s">
         <v>13</v>
       </c>
@@ -6041,8 +7576,11 @@
         <v>332</v>
       </c>
       <c r="I132" s="15"/>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="J132" s="17"/>
+      <c r="K132" s="17"/>
+      <c r="L132" s="17"/>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" s="15" t="s">
         <v>13</v>
       </c>
@@ -6070,8 +7608,11 @@
       <c r="I133" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="J133" s="17"/>
+      <c r="K133" s="17"/>
+      <c r="L133" s="17"/>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" s="15" t="s">
         <v>13</v>
       </c>
@@ -6099,8 +7640,11 @@
       <c r="I134" s="15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="J134" s="17"/>
+      <c r="K134" s="17"/>
+      <c r="L134" s="17"/>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" s="15" t="s">
         <v>13</v>
       </c>
@@ -6126,8 +7670,11 @@
         <v>401</v>
       </c>
       <c r="I135" s="15"/>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="J135" s="17"/>
+      <c r="K135" s="17"/>
+      <c r="L135" s="17"/>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" s="15" t="s">
         <v>13</v>
       </c>
@@ -6153,8 +7700,11 @@
         <v>403</v>
       </c>
       <c r="I136" s="15"/>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="J136" s="17"/>
+      <c r="K136" s="17"/>
+      <c r="L136" s="17"/>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" s="15" t="s">
         <v>13</v>
       </c>
@@ -6182,8 +7732,11 @@
       <c r="I137" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="J137" s="17"/>
+      <c r="K137" s="17"/>
+      <c r="L137" s="17"/>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" s="15" t="s">
         <v>13</v>
       </c>
@@ -6211,8 +7764,11 @@
       <c r="I138" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="J138" s="17"/>
+      <c r="K138" s="17"/>
+      <c r="L138" s="17"/>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" s="15" t="s">
         <v>13</v>
       </c>
@@ -6240,8 +7796,11 @@
       <c r="I139" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="J139" s="17"/>
+      <c r="K139" s="17"/>
+      <c r="L139" s="17"/>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" s="15" t="s">
         <v>13</v>
       </c>
@@ -6269,8 +7828,11 @@
       <c r="I140" s="15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="J140" s="17"/>
+      <c r="K140" s="17"/>
+      <c r="L140" s="17"/>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" s="15" t="s">
         <v>13</v>
       </c>
@@ -6296,8 +7858,11 @@
         <v>118</v>
       </c>
       <c r="I141" s="15"/>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="J141" s="17"/>
+      <c r="K141" s="17"/>
+      <c r="L141" s="17"/>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" s="15" t="s">
         <v>13</v>
       </c>
@@ -6323,8 +7888,11 @@
         <v>270</v>
       </c>
       <c r="I142" s="15"/>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="J142" s="17"/>
+      <c r="K142" s="17"/>
+      <c r="L142" s="17"/>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" s="15" t="s">
         <v>13</v>
       </c>
@@ -6350,8 +7918,11 @@
         <v>315</v>
       </c>
       <c r="I143" s="15"/>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="J143" s="17"/>
+      <c r="K143" s="17"/>
+      <c r="L143" s="17"/>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144" s="15" t="s">
         <v>13</v>
       </c>
@@ -6377,8 +7948,11 @@
         <v>480</v>
       </c>
       <c r="I144" s="15"/>
-    </row>
-    <row r="145" spans="1:9">
+      <c r="J144" s="17"/>
+      <c r="K144" s="17"/>
+      <c r="L144" s="17"/>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145" s="15" t="s">
         <v>13</v>
       </c>
@@ -6406,8 +7980,11 @@
       <c r="I145" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="146" spans="1:9">
+      <c r="J145" s="17"/>
+      <c r="K145" s="17"/>
+      <c r="L145" s="17"/>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146" s="15" t="s">
         <v>13</v>
       </c>
@@ -6433,8 +8010,11 @@
         <v>197</v>
       </c>
       <c r="I146" s="15"/>
-    </row>
-    <row r="147" spans="1:9">
+      <c r="J146" s="17"/>
+      <c r="K146" s="17"/>
+      <c r="L146" s="17"/>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147" s="15" t="s">
         <v>13</v>
       </c>
@@ -6460,8 +8040,11 @@
         <v>318</v>
       </c>
       <c r="I147" s="15"/>
-    </row>
-    <row r="148" spans="1:9">
+      <c r="J147" s="17"/>
+      <c r="K147" s="17"/>
+      <c r="L147" s="17"/>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148" s="15" t="s">
         <v>13</v>
       </c>
@@ -6487,8 +8070,11 @@
         <v>383</v>
       </c>
       <c r="I148" s="15"/>
-    </row>
-    <row r="149" spans="1:9">
+      <c r="J148" s="17"/>
+      <c r="K148" s="17"/>
+      <c r="L148" s="17"/>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149" s="15" t="s">
         <v>13</v>
       </c>
@@ -6514,8 +8100,11 @@
         <v>498</v>
       </c>
       <c r="I149" s="15"/>
-    </row>
-    <row r="150" spans="1:9">
+      <c r="J149" s="17"/>
+      <c r="K149" s="17"/>
+      <c r="L149" s="17"/>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150" s="15" t="s">
         <v>13</v>
       </c>
@@ -6541,8 +8130,11 @@
         <v>365</v>
       </c>
       <c r="I150" s="15"/>
-    </row>
-    <row r="151" spans="1:9">
+      <c r="J150" s="17"/>
+      <c r="K150" s="17"/>
+      <c r="L150" s="17"/>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151" s="15" t="s">
         <v>13</v>
       </c>
@@ -6570,8 +8162,11 @@
       <c r="I151" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="152" spans="1:9">
+      <c r="J151" s="17"/>
+      <c r="K151" s="17"/>
+      <c r="L151" s="17"/>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152" s="15" t="s">
         <v>13</v>
       </c>
@@ -6597,8 +8192,11 @@
         <v>207</v>
       </c>
       <c r="I152" s="15"/>
-    </row>
-    <row r="153" spans="1:9">
+      <c r="J152" s="17"/>
+      <c r="K152" s="17"/>
+      <c r="L152" s="17"/>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153" s="2" t="s">
         <v>13</v>
       </c>
@@ -6626,8 +8224,11 @@
       <c r="I153" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="154" spans="1:9">
+      <c r="J153" s="19"/>
+      <c r="K153" s="19"/>
+      <c r="L153" s="19"/>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154" s="13" t="s">
         <v>13</v>
       </c>
@@ -6653,8 +8254,11 @@
         <v>598</v>
       </c>
       <c r="I154" s="13"/>
-    </row>
-    <row r="155" spans="1:9">
+      <c r="J154" s="18"/>
+      <c r="K154" s="18"/>
+      <c r="L154" s="18"/>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155" s="15" t="s">
         <v>13</v>
       </c>
@@ -6680,8 +8284,11 @@
         <v>125</v>
       </c>
       <c r="I155" s="15"/>
-    </row>
-    <row r="156" spans="1:9">
+      <c r="J155" s="17"/>
+      <c r="K155" s="17"/>
+      <c r="L155" s="17"/>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156" s="15" t="s">
         <v>13</v>
       </c>
@@ -6707,8 +8314,11 @@
         <v>131</v>
       </c>
       <c r="I156" s="15"/>
-    </row>
-    <row r="157" spans="1:9">
+      <c r="J156" s="17"/>
+      <c r="K156" s="17"/>
+      <c r="L156" s="17"/>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157" s="15" t="s">
         <v>13</v>
       </c>
@@ -6734,8 +8344,11 @@
         <v>82</v>
       </c>
       <c r="I157" s="15"/>
-    </row>
-    <row r="158" spans="1:9">
+      <c r="J157" s="17"/>
+      <c r="K157" s="17"/>
+      <c r="L157" s="17"/>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158" s="15" t="s">
         <v>13</v>
       </c>
@@ -6761,8 +8374,11 @@
         <v>84</v>
       </c>
       <c r="I158" s="15"/>
-    </row>
-    <row r="159" spans="1:9">
+      <c r="J158" s="17"/>
+      <c r="K158" s="17"/>
+      <c r="L158" s="17"/>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159" s="15" t="s">
         <v>13</v>
       </c>
@@ -6788,8 +8404,11 @@
         <v>86</v>
       </c>
       <c r="I159" s="15"/>
-    </row>
-    <row r="160" spans="1:9">
+      <c r="J159" s="17"/>
+      <c r="K159" s="17"/>
+      <c r="L159" s="17"/>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160" s="15" t="s">
         <v>13</v>
       </c>
@@ -6815,8 +8434,11 @@
         <v>135</v>
       </c>
       <c r="I160" s="15"/>
-    </row>
-    <row r="161" spans="1:9">
+      <c r="J160" s="17"/>
+      <c r="K160" s="17"/>
+      <c r="L160" s="17"/>
+    </row>
+    <row r="161" spans="1:12">
       <c r="A161" s="15" t="s">
         <v>13</v>
       </c>
@@ -6842,8 +8464,11 @@
         <v>110</v>
       </c>
       <c r="I161" s="15"/>
-    </row>
-    <row r="162" spans="1:9">
+      <c r="J161" s="17"/>
+      <c r="K161" s="17"/>
+      <c r="L161" s="17"/>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162" s="15" t="s">
         <v>13</v>
       </c>
@@ -6869,8 +8494,11 @@
         <v>334</v>
       </c>
       <c r="I162" s="15"/>
-    </row>
-    <row r="163" spans="1:9">
+      <c r="J162" s="17"/>
+      <c r="K162" s="17"/>
+      <c r="L162" s="17"/>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163" s="15" t="s">
         <v>13</v>
       </c>
@@ -6896,8 +8524,11 @@
         <v>355</v>
       </c>
       <c r="I163" s="15"/>
-    </row>
-    <row r="164" spans="1:9">
+      <c r="J163" s="17"/>
+      <c r="K163" s="17"/>
+      <c r="L163" s="17"/>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164" s="15" t="s">
         <v>13</v>
       </c>
@@ -6923,8 +8554,11 @@
         <v>405</v>
       </c>
       <c r="I164" s="15"/>
-    </row>
-    <row r="165" spans="1:9">
+      <c r="J164" s="17"/>
+      <c r="K164" s="17"/>
+      <c r="L164" s="17"/>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165" s="13" t="s">
         <v>13</v>
       </c>
@@ -6952,8 +8586,11 @@
       <c r="I165" s="13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="J165" s="18"/>
+      <c r="K165" s="18"/>
+      <c r="L165" s="18"/>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166" s="15" t="s">
         <v>13</v>
       </c>
@@ -6979,8 +8616,11 @@
         <v>176</v>
       </c>
       <c r="I166" s="15"/>
-    </row>
-    <row r="167" spans="1:9">
+      <c r="J166" s="17"/>
+      <c r="K166" s="17"/>
+      <c r="L166" s="17"/>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167" s="15" t="s">
         <v>13</v>
       </c>
@@ -7006,8 +8646,11 @@
         <v>199</v>
       </c>
       <c r="I167" s="15"/>
-    </row>
-    <row r="168" spans="1:9">
+      <c r="J167" s="17"/>
+      <c r="K167" s="17"/>
+      <c r="L167" s="17"/>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168" s="15" t="s">
         <v>13</v>
       </c>
@@ -7033,8 +8676,11 @@
         <v>107</v>
       </c>
       <c r="I168" s="15"/>
-    </row>
-    <row r="169" spans="1:9">
+      <c r="J168" s="17"/>
+      <c r="K168" s="17"/>
+      <c r="L168" s="17"/>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169" s="15" t="s">
         <v>13</v>
       </c>
@@ -7060,8 +8706,11 @@
         <v>286</v>
       </c>
       <c r="I169" s="15"/>
-    </row>
-    <row r="170" spans="1:9">
+      <c r="J169" s="17"/>
+      <c r="K169" s="17"/>
+      <c r="L169" s="17"/>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170" s="15" t="s">
         <v>13</v>
       </c>
@@ -7087,8 +8736,11 @@
         <v>27</v>
       </c>
       <c r="I170" s="15"/>
-    </row>
-    <row r="171" spans="1:9">
+      <c r="J170" s="17"/>
+      <c r="K170" s="17"/>
+      <c r="L170" s="17"/>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171" s="15" t="s">
         <v>13</v>
       </c>
@@ -7114,8 +8766,11 @@
         <v>267</v>
       </c>
       <c r="I171" s="15"/>
-    </row>
-    <row r="172" spans="1:9">
+      <c r="J171" s="17"/>
+      <c r="K171" s="17"/>
+      <c r="L171" s="17"/>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172" s="15" t="s">
         <v>13</v>
       </c>
@@ -7141,8 +8796,11 @@
         <v>309</v>
       </c>
       <c r="I172" s="15"/>
-    </row>
-    <row r="173" spans="1:9">
+      <c r="J172" s="17"/>
+      <c r="K172" s="17"/>
+      <c r="L172" s="17"/>
+    </row>
+    <row r="173" spans="1:12">
       <c r="A173" s="15" t="s">
         <v>13</v>
       </c>
@@ -7168,8 +8826,11 @@
         <v>137</v>
       </c>
       <c r="I173" s="15"/>
-    </row>
-    <row r="174" spans="1:9">
+      <c r="J173" s="17"/>
+      <c r="K173" s="17"/>
+      <c r="L173" s="17"/>
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174" s="15" t="s">
         <v>13</v>
       </c>
@@ -7195,8 +8856,11 @@
         <v>217</v>
       </c>
       <c r="I174" s="15"/>
-    </row>
-    <row r="175" spans="1:9">
+      <c r="J174" s="17"/>
+      <c r="K174" s="17"/>
+      <c r="L174" s="17"/>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175" s="15" t="s">
         <v>13</v>
       </c>
@@ -7222,8 +8886,11 @@
         <v>222</v>
       </c>
       <c r="I175" s="15"/>
-    </row>
-    <row r="176" spans="1:9">
+      <c r="J175" s="17"/>
+      <c r="K175" s="17"/>
+      <c r="L175" s="17"/>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176" s="15" t="s">
         <v>13</v>
       </c>
@@ -7249,8 +8916,11 @@
         <v>328</v>
       </c>
       <c r="I176" s="15"/>
-    </row>
-    <row r="177" spans="1:9">
+      <c r="J176" s="17"/>
+      <c r="K176" s="17"/>
+      <c r="L176" s="17"/>
+    </row>
+    <row r="177" spans="1:12">
       <c r="A177" s="15" t="s">
         <v>13</v>
       </c>
@@ -7276,8 +8946,11 @@
         <v>329</v>
       </c>
       <c r="I177" s="15"/>
-    </row>
-    <row r="178" spans="1:9">
+      <c r="J177" s="17"/>
+      <c r="K177" s="17"/>
+      <c r="L177" s="17"/>
+    </row>
+    <row r="178" spans="1:12">
       <c r="A178" s="15" t="s">
         <v>13</v>
       </c>
@@ -7303,8 +8976,11 @@
         <v>216</v>
       </c>
       <c r="I178" s="15"/>
-    </row>
-    <row r="179" spans="1:9">
+      <c r="J178" s="17"/>
+      <c r="K178" s="17"/>
+      <c r="L178" s="17"/>
+    </row>
+    <row r="179" spans="1:12">
       <c r="A179" s="15" t="s">
         <v>13</v>
       </c>
@@ -7330,8 +9006,11 @@
         <v>185</v>
       </c>
       <c r="I179" s="15"/>
-    </row>
-    <row r="180" spans="1:9">
+      <c r="J179" s="17"/>
+      <c r="K179" s="17"/>
+      <c r="L179" s="17"/>
+    </row>
+    <row r="180" spans="1:12">
       <c r="A180" s="13" t="s">
         <v>13</v>
       </c>
@@ -7357,8 +9036,11 @@
         <v>619</v>
       </c>
       <c r="I180" s="15"/>
-    </row>
-    <row r="181" spans="1:9">
+      <c r="J180" s="17"/>
+      <c r="K180" s="17"/>
+      <c r="L180" s="17"/>
+    </row>
+    <row r="181" spans="1:12">
       <c r="A181" s="13" t="s">
         <v>13</v>
       </c>
@@ -7384,8 +9066,11 @@
         <v>619</v>
       </c>
       <c r="I181" s="15"/>
-    </row>
-    <row r="182" spans="1:9">
+      <c r="J181" s="17"/>
+      <c r="K181" s="17"/>
+      <c r="L181" s="17"/>
+    </row>
+    <row r="182" spans="1:12">
       <c r="A182" s="15" t="s">
         <v>13</v>
       </c>
@@ -7411,8 +9096,11 @@
         <v>288</v>
       </c>
       <c r="I182" s="15"/>
-    </row>
-    <row r="183" spans="1:9">
+      <c r="J182" s="17"/>
+      <c r="K182" s="17"/>
+      <c r="L182" s="17"/>
+    </row>
+    <row r="183" spans="1:12">
       <c r="A183" s="15" t="s">
         <v>13</v>
       </c>
@@ -7438,8 +9126,11 @@
         <v>327</v>
       </c>
       <c r="I183" s="15"/>
-    </row>
-    <row r="184" spans="1:9">
+      <c r="J183" s="17"/>
+      <c r="K183" s="17"/>
+      <c r="L183" s="17"/>
+    </row>
+    <row r="184" spans="1:12">
       <c r="A184" s="15" t="s">
         <v>13</v>
       </c>
@@ -7467,8 +9158,11 @@
       <c r="I184" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="185" spans="1:9">
+      <c r="J184" s="17"/>
+      <c r="K184" s="17"/>
+      <c r="L184" s="17"/>
+    </row>
+    <row r="185" spans="1:12">
       <c r="A185" s="13" t="s">
         <v>13</v>
       </c>
@@ -7494,8 +9188,11 @@
         <v>601</v>
       </c>
       <c r="I185" s="13"/>
-    </row>
-    <row r="186" spans="1:9">
+      <c r="J185" s="18"/>
+      <c r="K185" s="18"/>
+      <c r="L185" s="18"/>
+    </row>
+    <row r="186" spans="1:12">
       <c r="A186" s="15" t="s">
         <v>13</v>
       </c>
@@ -7523,8 +9220,11 @@
       <c r="I186" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="187" spans="1:9">
+      <c r="J186" s="17"/>
+      <c r="K186" s="17"/>
+      <c r="L186" s="17"/>
+    </row>
+    <row r="187" spans="1:12">
       <c r="A187" s="15" t="s">
         <v>13</v>
       </c>
@@ -7552,8 +9252,11 @@
       <c r="I187" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="188" spans="1:9">
+      <c r="J187" s="17"/>
+      <c r="K187" s="17"/>
+      <c r="L187" s="17"/>
+    </row>
+    <row r="188" spans="1:12">
       <c r="A188" s="15" t="s">
         <v>13</v>
       </c>
@@ -7581,8 +9284,11 @@
       <c r="I188" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="189" spans="1:9">
+      <c r="J188" s="17"/>
+      <c r="K188" s="17"/>
+      <c r="L188" s="17"/>
+    </row>
+    <row r="189" spans="1:12">
       <c r="A189" s="15" t="s">
         <v>13</v>
       </c>
@@ -7610,8 +9316,11 @@
       <c r="I189" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="190" spans="1:9">
+      <c r="J189" s="17"/>
+      <c r="K189" s="17"/>
+      <c r="L189" s="17"/>
+    </row>
+    <row r="190" spans="1:12">
       <c r="A190" s="15" t="s">
         <v>13</v>
       </c>
@@ -7639,8 +9348,11 @@
       <c r="I190" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="191" spans="1:9">
+      <c r="J190" s="17"/>
+      <c r="K190" s="17"/>
+      <c r="L190" s="17"/>
+    </row>
+    <row r="191" spans="1:12">
       <c r="A191" s="15" t="s">
         <v>13</v>
       </c>
@@ -7666,8 +9378,11 @@
         <v>256</v>
       </c>
       <c r="I191" s="15"/>
-    </row>
-    <row r="192" spans="1:9">
+      <c r="J191" s="17"/>
+      <c r="K191" s="17"/>
+      <c r="L191" s="17"/>
+    </row>
+    <row r="192" spans="1:12">
       <c r="A192" s="15" t="s">
         <v>13</v>
       </c>
@@ -7695,8 +9410,11 @@
       <c r="I192" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="193" spans="1:9">
+      <c r="J192" s="17"/>
+      <c r="K192" s="17"/>
+      <c r="L192" s="17"/>
+    </row>
+    <row r="193" spans="1:12">
       <c r="A193" s="15" t="s">
         <v>13</v>
       </c>
@@ -7722,8 +9440,11 @@
         <v>324</v>
       </c>
       <c r="I193" s="15"/>
-    </row>
-    <row r="194" spans="1:9">
+      <c r="J193" s="17"/>
+      <c r="K193" s="17"/>
+      <c r="L193" s="17"/>
+    </row>
+    <row r="194" spans="1:12">
       <c r="A194" s="15" t="s">
         <v>13</v>
       </c>
@@ -7749,8 +9470,11 @@
         <v>326</v>
       </c>
       <c r="I194" s="15"/>
-    </row>
-    <row r="195" spans="1:9">
+      <c r="J194" s="17"/>
+      <c r="K194" s="17"/>
+      <c r="L194" s="17"/>
+    </row>
+    <row r="195" spans="1:12">
       <c r="A195" s="15" t="s">
         <v>13</v>
       </c>
@@ -7776,8 +9500,11 @@
         <v>362</v>
       </c>
       <c r="I195" s="15"/>
-    </row>
-    <row r="196" spans="1:9">
+      <c r="J195" s="17"/>
+      <c r="K195" s="17"/>
+      <c r="L195" s="17"/>
+    </row>
+    <row r="196" spans="1:12">
       <c r="A196" s="15" t="s">
         <v>13</v>
       </c>
@@ -7803,8 +9530,11 @@
         <v>313</v>
       </c>
       <c r="I196" s="15"/>
-    </row>
-    <row r="197" spans="1:9">
+      <c r="J196" s="17"/>
+      <c r="K196" s="17"/>
+      <c r="L196" s="17"/>
+    </row>
+    <row r="197" spans="1:12">
       <c r="A197" s="15" t="s">
         <v>13</v>
       </c>
@@ -7830,8 +9560,11 @@
         <v>140</v>
       </c>
       <c r="I197" s="15"/>
-    </row>
-    <row r="198" spans="1:9">
+      <c r="J197" s="17"/>
+      <c r="K197" s="17"/>
+      <c r="L197" s="17"/>
+    </row>
+    <row r="198" spans="1:12">
       <c r="A198" s="15" t="s">
         <v>13</v>
       </c>
@@ -7857,8 +9590,11 @@
         <v>199</v>
       </c>
       <c r="I198" s="15"/>
-    </row>
-    <row r="199" spans="1:9">
+      <c r="J198" s="17"/>
+      <c r="K198" s="17"/>
+      <c r="L198" s="17"/>
+    </row>
+    <row r="199" spans="1:12">
       <c r="A199" s="15" t="s">
         <v>13</v>
       </c>
@@ -7884,8 +9620,11 @@
         <v>226</v>
       </c>
       <c r="I199" s="15"/>
-    </row>
-    <row r="200" spans="1:9">
+      <c r="J199" s="17"/>
+      <c r="K199" s="17"/>
+      <c r="L199" s="17"/>
+    </row>
+    <row r="200" spans="1:12">
       <c r="A200" s="15" t="s">
         <v>13</v>
       </c>
@@ -7911,8 +9650,11 @@
         <v>440</v>
       </c>
       <c r="I200" s="15"/>
-    </row>
-    <row r="201" spans="1:9">
+      <c r="J200" s="17"/>
+      <c r="K200" s="17"/>
+      <c r="L200" s="17"/>
+    </row>
+    <row r="201" spans="1:12">
       <c r="A201" s="15" t="s">
         <v>13</v>
       </c>
@@ -7938,8 +9680,11 @@
         <v>97</v>
       </c>
       <c r="I201" s="15"/>
-    </row>
-    <row r="202" spans="1:9">
+      <c r="J201" s="17"/>
+      <c r="K201" s="17"/>
+      <c r="L201" s="17"/>
+    </row>
+    <row r="202" spans="1:12">
       <c r="A202" s="15" t="s">
         <v>13</v>
       </c>
@@ -7965,8 +9710,11 @@
         <v>234</v>
       </c>
       <c r="I202" s="15"/>
-    </row>
-    <row r="203" spans="1:9">
+      <c r="J202" s="17"/>
+      <c r="K202" s="17"/>
+      <c r="L202" s="17"/>
+    </row>
+    <row r="203" spans="1:12">
       <c r="A203" s="15" t="s">
         <v>13</v>
       </c>
@@ -7994,8 +9742,11 @@
       <c r="I203" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="204" spans="1:9">
+      <c r="J203" s="17"/>
+      <c r="K203" s="17"/>
+      <c r="L203" s="17"/>
+    </row>
+    <row r="204" spans="1:12">
       <c r="A204" s="15" t="s">
         <v>13</v>
       </c>
@@ -8023,8 +9774,11 @@
       <c r="I204" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="205" spans="1:9">
+      <c r="J204" s="17"/>
+      <c r="K204" s="17"/>
+      <c r="L204" s="17"/>
+    </row>
+    <row r="205" spans="1:12">
       <c r="A205" s="15" t="s">
         <v>13</v>
       </c>
@@ -8052,8 +9806,11 @@
       <c r="I205" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="206" spans="1:9">
+      <c r="J205" s="17"/>
+      <c r="K205" s="17"/>
+      <c r="L205" s="17"/>
+    </row>
+    <row r="206" spans="1:12">
       <c r="A206" s="15" t="s">
         <v>13</v>
       </c>
@@ -8079,8 +9836,11 @@
         <v>393</v>
       </c>
       <c r="I206" s="15"/>
-    </row>
-    <row r="207" spans="1:9">
+      <c r="J206" s="17"/>
+      <c r="K206" s="17"/>
+      <c r="L206" s="17"/>
+    </row>
+    <row r="207" spans="1:12">
       <c r="A207" s="15" t="s">
         <v>13</v>
       </c>
@@ -8106,8 +9866,11 @@
         <v>128</v>
       </c>
       <c r="I207" s="15"/>
-    </row>
-    <row r="208" spans="1:9">
+      <c r="J207" s="17"/>
+      <c r="K207" s="17"/>
+      <c r="L207" s="17"/>
+    </row>
+    <row r="208" spans="1:12">
       <c r="A208" s="15" t="s">
         <v>13</v>
       </c>
@@ -8133,8 +9896,11 @@
         <v>490</v>
       </c>
       <c r="I208" s="15"/>
-    </row>
-    <row r="209" spans="1:9">
+      <c r="J208" s="17"/>
+      <c r="K208" s="17"/>
+      <c r="L208" s="17"/>
+    </row>
+    <row r="209" spans="1:12">
       <c r="A209" s="13" t="s">
         <v>13</v>
       </c>
@@ -8160,8 +9926,11 @@
         <v>603</v>
       </c>
       <c r="I209" s="13"/>
-    </row>
-    <row r="210" spans="1:9">
+      <c r="J209" s="18"/>
+      <c r="K209" s="18"/>
+      <c r="L209" s="18"/>
+    </row>
+    <row r="210" spans="1:12">
       <c r="A210" s="15" t="s">
         <v>13</v>
       </c>
@@ -8187,8 +9956,11 @@
         <v>345</v>
       </c>
       <c r="I210" s="15"/>
-    </row>
-    <row r="211" spans="1:9">
+      <c r="J210" s="17"/>
+      <c r="K210" s="17"/>
+      <c r="L210" s="17"/>
+    </row>
+    <row r="211" spans="1:12">
       <c r="A211" s="15" t="s">
         <v>13</v>
       </c>
@@ -8214,8 +9986,11 @@
         <v>349</v>
       </c>
       <c r="I211" s="15"/>
-    </row>
-    <row r="212" spans="1:9">
+      <c r="J211" s="17"/>
+      <c r="K211" s="17"/>
+      <c r="L211" s="17"/>
+    </row>
+    <row r="212" spans="1:12">
       <c r="A212" s="13" t="s">
         <v>13</v>
       </c>
@@ -8243,8 +10018,11 @@
       <c r="I212" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="213" spans="1:9">
+      <c r="J212" s="18"/>
+      <c r="K212" s="18"/>
+      <c r="L212" s="18"/>
+    </row>
+    <row r="213" spans="1:12">
       <c r="A213" s="15" t="s">
         <v>13</v>
       </c>
@@ -8272,8 +10050,11 @@
       <c r="I213" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="214" spans="1:9">
+      <c r="J213" s="17"/>
+      <c r="K213" s="17"/>
+      <c r="L213" s="17"/>
+    </row>
+    <row r="214" spans="1:12">
       <c r="A214" s="15" t="s">
         <v>13</v>
       </c>
@@ -8301,8 +10082,11 @@
       <c r="I214" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="215" spans="1:9">
+      <c r="J214" s="17"/>
+      <c r="K214" s="17"/>
+      <c r="L214" s="17"/>
+    </row>
+    <row r="215" spans="1:12">
       <c r="A215" s="15" t="s">
         <v>13</v>
       </c>
@@ -8330,8 +10114,11 @@
       <c r="I215" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="216" spans="1:9">
+      <c r="J215" s="17"/>
+      <c r="K215" s="17"/>
+      <c r="L215" s="17"/>
+    </row>
+    <row r="216" spans="1:12">
       <c r="A216" s="15" t="s">
         <v>13</v>
       </c>
@@ -8359,8 +10146,11 @@
       <c r="I216" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="217" spans="1:9">
+      <c r="J216" s="17"/>
+      <c r="K216" s="17"/>
+      <c r="L216" s="17"/>
+    </row>
+    <row r="217" spans="1:12">
       <c r="A217" s="15" t="s">
         <v>13</v>
       </c>
@@ -8386,8 +10176,11 @@
         <v>229</v>
       </c>
       <c r="I217" s="15"/>
-    </row>
-    <row r="218" spans="1:9">
+      <c r="J217" s="17"/>
+      <c r="K217" s="17"/>
+      <c r="L217" s="17"/>
+    </row>
+    <row r="218" spans="1:12">
       <c r="A218" s="15" t="s">
         <v>13</v>
       </c>
@@ -8413,8 +10206,11 @@
         <v>229</v>
       </c>
       <c r="I218" s="15"/>
-    </row>
-    <row r="219" spans="1:9">
+      <c r="J218" s="17"/>
+      <c r="K218" s="17"/>
+      <c r="L218" s="17"/>
+    </row>
+    <row r="219" spans="1:12">
       <c r="A219" s="15" t="s">
         <v>13</v>
       </c>
@@ -8442,8 +10238,11 @@
       <c r="I219" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="220" spans="1:9">
+      <c r="J219" s="17"/>
+      <c r="K219" s="17"/>
+      <c r="L219" s="17"/>
+    </row>
+    <row r="220" spans="1:12">
       <c r="A220" s="15" t="s">
         <v>13</v>
       </c>
@@ -8469,8 +10268,11 @@
         <v>232</v>
       </c>
       <c r="I220" s="15"/>
-    </row>
-    <row r="221" spans="1:9">
+      <c r="J220" s="17"/>
+      <c r="K220" s="17"/>
+      <c r="L220" s="17"/>
+    </row>
+    <row r="221" spans="1:12">
       <c r="A221" s="15" t="s">
         <v>13</v>
       </c>
@@ -8496,8 +10298,11 @@
         <v>121</v>
       </c>
       <c r="I221" s="15"/>
-    </row>
-    <row r="222" spans="1:9">
+      <c r="J221" s="17"/>
+      <c r="K221" s="17"/>
+      <c r="L221" s="17"/>
+    </row>
+    <row r="222" spans="1:12">
       <c r="A222" s="15" t="s">
         <v>13</v>
       </c>
@@ -8523,8 +10328,11 @@
         <v>265</v>
       </c>
       <c r="I222" s="15"/>
-    </row>
-    <row r="223" spans="1:9">
+      <c r="J222" s="17"/>
+      <c r="K222" s="17"/>
+      <c r="L222" s="17"/>
+    </row>
+    <row r="223" spans="1:12">
       <c r="A223" s="15" t="s">
         <v>13</v>
       </c>
@@ -8550,8 +10358,11 @@
         <v>353</v>
       </c>
       <c r="I223" s="15"/>
-    </row>
-    <row r="224" spans="1:9">
+      <c r="J223" s="17"/>
+      <c r="K223" s="17"/>
+      <c r="L223" s="17"/>
+    </row>
+    <row r="224" spans="1:12">
       <c r="A224" s="15" t="s">
         <v>13</v>
       </c>
@@ -8577,8 +10388,11 @@
         <v>357</v>
       </c>
       <c r="I224" s="15"/>
-    </row>
-    <row r="225" spans="1:9">
+      <c r="J224" s="17"/>
+      <c r="K224" s="17"/>
+      <c r="L224" s="17"/>
+    </row>
+    <row r="225" spans="1:12">
       <c r="A225" s="15" t="s">
         <v>13</v>
       </c>
@@ -8604,8 +10418,11 @@
         <v>143</v>
       </c>
       <c r="I225" s="15"/>
-    </row>
-    <row r="226" spans="1:9">
+      <c r="J225" s="17"/>
+      <c r="K225" s="17"/>
+      <c r="L225" s="17"/>
+    </row>
+    <row r="226" spans="1:12">
       <c r="A226" s="15" t="s">
         <v>13</v>
       </c>
@@ -8631,8 +10448,11 @@
         <v>147</v>
       </c>
       <c r="I226" s="15"/>
-    </row>
-    <row r="227" spans="1:9">
+      <c r="J226" s="17"/>
+      <c r="K226" s="17"/>
+      <c r="L226" s="17"/>
+    </row>
+    <row r="227" spans="1:12">
       <c r="A227" s="15" t="s">
         <v>13</v>
       </c>
@@ -8658,8 +10478,11 @@
         <v>410</v>
       </c>
       <c r="I227" s="15"/>
-    </row>
-    <row r="228" spans="1:9">
+      <c r="J227" s="17"/>
+      <c r="K227" s="17"/>
+      <c r="L227" s="17"/>
+    </row>
+    <row r="228" spans="1:12">
       <c r="A228" s="15" t="s">
         <v>13</v>
       </c>
@@ -8687,8 +10510,11 @@
       <c r="I228" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="229" spans="1:9">
+      <c r="J228" s="17"/>
+      <c r="K228" s="17"/>
+      <c r="L228" s="17"/>
+    </row>
+    <row r="229" spans="1:12">
       <c r="A229" s="15" t="s">
         <v>13</v>
       </c>
@@ -8716,8 +10542,11 @@
       <c r="I229" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="230" spans="1:9">
+      <c r="J229" s="17"/>
+      <c r="K229" s="17"/>
+      <c r="L229" s="17"/>
+    </row>
+    <row r="230" spans="1:12">
       <c r="A230" s="15" t="s">
         <v>13</v>
       </c>
@@ -8743,8 +10572,11 @@
         <v>303</v>
       </c>
       <c r="I230" s="15"/>
-    </row>
-    <row r="231" spans="1:9">
+      <c r="J230" s="17"/>
+      <c r="K230" s="17"/>
+      <c r="L230" s="17"/>
+    </row>
+    <row r="231" spans="1:12">
       <c r="A231" s="15" t="s">
         <v>13</v>
       </c>
@@ -8770,8 +10602,11 @@
         <v>396</v>
       </c>
       <c r="I231" s="15"/>
-    </row>
-    <row r="232" spans="1:9">
+      <c r="J231" s="17"/>
+      <c r="K231" s="17"/>
+      <c r="L231" s="17"/>
+    </row>
+    <row r="232" spans="1:12">
       <c r="A232" s="15" t="s">
         <v>13</v>
       </c>
@@ -8797,8 +10632,11 @@
         <v>555</v>
       </c>
       <c r="I232" s="15"/>
-    </row>
-    <row r="233" spans="1:9">
+      <c r="J232" s="17"/>
+      <c r="K232" s="17"/>
+      <c r="L232" s="17"/>
+    </row>
+    <row r="233" spans="1:12">
       <c r="A233" s="15" t="s">
         <v>13</v>
       </c>
@@ -8824,8 +10662,11 @@
         <v>557</v>
       </c>
       <c r="I233" s="15"/>
-    </row>
-    <row r="234" spans="1:9">
+      <c r="J233" s="17"/>
+      <c r="K233" s="17"/>
+      <c r="L233" s="17"/>
+    </row>
+    <row r="234" spans="1:12">
       <c r="A234" s="15" t="s">
         <v>13</v>
       </c>
@@ -8851,8 +10692,11 @@
         <v>572</v>
       </c>
       <c r="I234" s="15"/>
-    </row>
-    <row r="235" spans="1:9">
+      <c r="J234" s="17"/>
+      <c r="K234" s="17"/>
+      <c r="L234" s="17"/>
+    </row>
+    <row r="235" spans="1:12">
       <c r="A235" s="15" t="s">
         <v>13</v>
       </c>
@@ -8880,8 +10724,11 @@
       <c r="I235" s="15" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="236" spans="1:9">
+      <c r="J235" s="17"/>
+      <c r="K235" s="17"/>
+      <c r="L235" s="17"/>
+    </row>
+    <row r="236" spans="1:12">
       <c r="A236" s="15" t="s">
         <v>13</v>
       </c>
@@ -8909,8 +10756,11 @@
       <c r="I236" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="237" spans="1:9">
+      <c r="J236" s="17"/>
+      <c r="K236" s="17"/>
+      <c r="L236" s="17"/>
+    </row>
+    <row r="237" spans="1:12">
       <c r="A237" s="15" t="s">
         <v>13</v>
       </c>
@@ -8938,8 +10788,11 @@
       <c r="I237" s="15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="238" spans="1:9">
+      <c r="J237" s="17"/>
+      <c r="K237" s="17"/>
+      <c r="L237" s="17"/>
+    </row>
+    <row r="238" spans="1:12">
       <c r="A238" s="15" t="s">
         <v>13</v>
       </c>
@@ -8967,8 +10820,11 @@
       <c r="I238" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="239" spans="1:9">
+      <c r="J238" s="17"/>
+      <c r="K238" s="17"/>
+      <c r="L238" s="17"/>
+    </row>
+    <row r="239" spans="1:12">
       <c r="A239" s="15" t="s">
         <v>13</v>
       </c>
@@ -8994,8 +10850,11 @@
         <v>570</v>
       </c>
       <c r="I239" s="15"/>
-    </row>
-    <row r="240" spans="1:9">
+      <c r="J239" s="17"/>
+      <c r="K239" s="17"/>
+      <c r="L239" s="17"/>
+    </row>
+    <row r="240" spans="1:12">
       <c r="A240" s="15" t="s">
         <v>13</v>
       </c>
@@ -9023,8 +10882,11 @@
       <c r="I240" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="241" spans="1:9">
+      <c r="J240" s="17"/>
+      <c r="K240" s="17"/>
+      <c r="L240" s="17"/>
+    </row>
+    <row r="241" spans="1:12">
       <c r="A241" s="15" t="s">
         <v>13</v>
       </c>
@@ -9052,8 +10914,11 @@
       <c r="I241" s="15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="242" spans="1:9">
+      <c r="J241" s="17"/>
+      <c r="K241" s="17"/>
+      <c r="L241" s="17"/>
+    </row>
+    <row r="242" spans="1:12">
       <c r="A242" s="15" t="s">
         <v>13</v>
       </c>
@@ -9081,8 +10946,11 @@
       <c r="I242" s="15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="243" spans="1:9">
+      <c r="J242" s="17"/>
+      <c r="K242" s="17"/>
+      <c r="L242" s="17"/>
+    </row>
+    <row r="243" spans="1:12">
       <c r="A243" s="15" t="s">
         <v>13</v>
       </c>
@@ -9110,8 +10978,11 @@
       <c r="I243" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="244" spans="1:9">
+      <c r="J243" s="17"/>
+      <c r="K243" s="17"/>
+      <c r="L243" s="17"/>
+    </row>
+    <row r="244" spans="1:12">
       <c r="A244" s="15" t="s">
         <v>13</v>
       </c>
@@ -9139,8 +11010,11 @@
       <c r="I244" s="15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="245" spans="1:9">
+      <c r="J244" s="17"/>
+      <c r="K244" s="17"/>
+      <c r="L244" s="17"/>
+    </row>
+    <row r="245" spans="1:12">
       <c r="A245" s="15" t="s">
         <v>13</v>
       </c>
@@ -9168,8 +11042,11 @@
       <c r="I245" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="246" spans="1:9">
+      <c r="J245" s="17"/>
+      <c r="K245" s="17"/>
+      <c r="L245" s="17"/>
+    </row>
+    <row r="246" spans="1:12">
       <c r="A246" s="15" t="s">
         <v>13</v>
       </c>
@@ -9195,8 +11072,11 @@
         <v>59</v>
       </c>
       <c r="I246" s="15"/>
-    </row>
-    <row r="247" spans="1:9">
+      <c r="J246" s="17"/>
+      <c r="K246" s="17"/>
+      <c r="L246" s="17"/>
+    </row>
+    <row r="247" spans="1:12">
       <c r="A247" s="15" t="s">
         <v>13</v>
       </c>
@@ -9222,8 +11102,11 @@
         <v>311</v>
       </c>
       <c r="I247" s="15"/>
-    </row>
-    <row r="248" spans="1:9">
+      <c r="J247" s="17"/>
+      <c r="K247" s="17"/>
+      <c r="L247" s="17"/>
+    </row>
+    <row r="248" spans="1:12">
       <c r="A248" s="15" t="s">
         <v>13</v>
       </c>
@@ -9251,8 +11134,11 @@
       <c r="I248" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="249" spans="1:9">
+      <c r="J248" s="17"/>
+      <c r="K248" s="17"/>
+      <c r="L248" s="17"/>
+    </row>
+    <row r="249" spans="1:12">
       <c r="A249" s="15" t="s">
         <v>13</v>
       </c>
@@ -9278,8 +11164,11 @@
         <v>56</v>
       </c>
       <c r="I249" s="15"/>
-    </row>
-    <row r="250" spans="1:9">
+      <c r="J249" s="17"/>
+      <c r="K249" s="17"/>
+      <c r="L249" s="17"/>
+    </row>
+    <row r="250" spans="1:12">
       <c r="A250" s="15" t="s">
         <v>13</v>
       </c>
@@ -9303,8 +11192,11 @@
         <v>574</v>
       </c>
       <c r="I250" s="15"/>
-    </row>
-    <row r="251" spans="1:9">
+      <c r="J250" s="17"/>
+      <c r="K250" s="17"/>
+      <c r="L250" s="17"/>
+    </row>
+    <row r="251" spans="1:12">
       <c r="A251" s="15" t="s">
         <v>13</v>
       </c>
@@ -9330,8 +11222,11 @@
         <v>496</v>
       </c>
       <c r="I251" s="15"/>
-    </row>
-    <row r="252" spans="1:9">
+      <c r="J251" s="17"/>
+      <c r="K251" s="17"/>
+      <c r="L251" s="17"/>
+    </row>
+    <row r="252" spans="1:12">
       <c r="A252" s="15" t="s">
         <v>13</v>
       </c>
@@ -9359,8 +11254,11 @@
       <c r="I252" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="253" spans="1:9">
+      <c r="J252" s="17"/>
+      <c r="K252" s="17"/>
+      <c r="L252" s="17"/>
+    </row>
+    <row r="253" spans="1:12">
       <c r="A253" s="15" t="s">
         <v>13</v>
       </c>
@@ -9386,8 +11284,11 @@
         <v>299</v>
       </c>
       <c r="I253" s="15"/>
-    </row>
-    <row r="254" spans="1:9">
+      <c r="J253" s="17"/>
+      <c r="K253" s="17"/>
+      <c r="L253" s="17"/>
+    </row>
+    <row r="254" spans="1:12">
       <c r="A254" s="15" t="s">
         <v>13</v>
       </c>
@@ -9413,8 +11314,11 @@
         <v>501</v>
       </c>
       <c r="I254" s="15"/>
-    </row>
-    <row r="255" spans="1:9">
+      <c r="J254" s="17"/>
+      <c r="K254" s="17"/>
+      <c r="L254" s="17"/>
+    </row>
+    <row r="255" spans="1:12">
       <c r="A255" s="13" t="s">
         <v>13</v>
       </c>
@@ -9440,8 +11344,11 @@
         <v>621</v>
       </c>
       <c r="I255" s="15"/>
-    </row>
-    <row r="256" spans="1:9">
+      <c r="J255" s="17"/>
+      <c r="K255" s="17"/>
+      <c r="L255" s="17"/>
+    </row>
+    <row r="256" spans="1:12">
       <c r="A256" s="15" t="s">
         <v>13</v>
       </c>
@@ -9467,8 +11374,11 @@
         <v>381</v>
       </c>
       <c r="I256" s="15"/>
-    </row>
-    <row r="257" spans="1:9">
+      <c r="J256" s="17"/>
+      <c r="K256" s="17"/>
+      <c r="L256" s="17"/>
+    </row>
+    <row r="257" spans="1:12">
       <c r="A257" s="15" t="s">
         <v>13</v>
       </c>
@@ -9496,8 +11406,11 @@
       <c r="I257" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="258" spans="1:9">
+      <c r="J257" s="17"/>
+      <c r="K257" s="17"/>
+      <c r="L257" s="17"/>
+    </row>
+    <row r="258" spans="1:12">
       <c r="A258" s="15" t="s">
         <v>13</v>
       </c>
@@ -9523,8 +11436,11 @@
         <v>488</v>
       </c>
       <c r="I258" s="15"/>
-    </row>
-    <row r="259" spans="1:9">
+      <c r="J258" s="17"/>
+      <c r="K258" s="17"/>
+      <c r="L258" s="17"/>
+    </row>
+    <row r="259" spans="1:12">
       <c r="A259" s="13" t="s">
         <v>13</v>
       </c>
@@ -9550,8 +11466,11 @@
         <v>607</v>
       </c>
       <c r="I259" s="13"/>
-    </row>
-    <row r="260" spans="1:9">
+      <c r="J259" s="18"/>
+      <c r="K259" s="18"/>
+      <c r="L259" s="18"/>
+    </row>
+    <row r="260" spans="1:12">
       <c r="A260" s="15" t="s">
         <v>13</v>
       </c>
@@ -9577,8 +11496,11 @@
         <v>293</v>
       </c>
       <c r="I260" s="15"/>
-    </row>
-    <row r="261" spans="1:9">
+      <c r="J260" s="17"/>
+      <c r="K260" s="17"/>
+      <c r="L260" s="17"/>
+    </row>
+    <row r="261" spans="1:12">
       <c r="A261" s="15" t="s">
         <v>13</v>
       </c>
@@ -9604,8 +11526,11 @@
         <v>17</v>
       </c>
       <c r="I261" s="15"/>
-    </row>
-    <row r="262" spans="1:9">
+      <c r="J261" s="17"/>
+      <c r="K261" s="17"/>
+      <c r="L261" s="17"/>
+    </row>
+    <row r="262" spans="1:12">
       <c r="A262" s="15" t="s">
         <v>13</v>
       </c>
@@ -9631,8 +11556,11 @@
         <v>360</v>
       </c>
       <c r="I262" s="15"/>
-    </row>
-    <row r="263" spans="1:9">
+      <c r="J262" s="17"/>
+      <c r="K262" s="17"/>
+      <c r="L262" s="17"/>
+    </row>
+    <row r="263" spans="1:12">
       <c r="A263" s="15" t="s">
         <v>13</v>
       </c>
@@ -9660,8 +11588,11 @@
       <c r="I263" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="264" spans="1:9">
+      <c r="J263" s="17"/>
+      <c r="K263" s="17"/>
+      <c r="L263" s="17"/>
+    </row>
+    <row r="264" spans="1:12">
       <c r="A264" s="15" t="s">
         <v>13</v>
       </c>
@@ -9687,8 +11618,11 @@
         <v>379</v>
       </c>
       <c r="I264" s="15"/>
-    </row>
-    <row r="265" spans="1:9">
+      <c r="J264" s="17"/>
+      <c r="K264" s="17"/>
+      <c r="L264" s="17"/>
+    </row>
+    <row r="265" spans="1:12">
       <c r="A265" s="15" t="s">
         <v>13</v>
       </c>
@@ -9714,8 +11648,11 @@
         <v>201</v>
       </c>
       <c r="I265" s="15"/>
-    </row>
-    <row r="266" spans="1:9">
+      <c r="J265" s="17"/>
+      <c r="K265" s="17"/>
+      <c r="L265" s="17"/>
+    </row>
+    <row r="266" spans="1:12">
       <c r="A266" s="15" t="s">
         <v>13</v>
       </c>
@@ -9741,8 +11678,11 @@
         <v>262</v>
       </c>
       <c r="I266" s="15"/>
-    </row>
-    <row r="267" spans="1:9">
+      <c r="J266" s="17"/>
+      <c r="K266" s="17"/>
+      <c r="L266" s="17"/>
+    </row>
+    <row r="267" spans="1:12">
       <c r="A267" s="15" t="s">
         <v>13</v>
       </c>
@@ -9768,8 +11708,11 @@
         <v>305</v>
       </c>
       <c r="I267" s="15"/>
-    </row>
-    <row r="268" spans="1:9">
+      <c r="J267" s="17"/>
+      <c r="K267" s="17"/>
+      <c r="L267" s="17"/>
+    </row>
+    <row r="268" spans="1:12">
       <c r="A268" s="15" t="s">
         <v>13</v>
       </c>
@@ -9795,8 +11738,11 @@
         <v>369</v>
       </c>
       <c r="I268" s="15"/>
-    </row>
-    <row r="269" spans="1:9">
+      <c r="J268" s="17"/>
+      <c r="K268" s="17"/>
+      <c r="L268" s="17"/>
+    </row>
+    <row r="269" spans="1:12">
       <c r="A269" s="15" t="s">
         <v>13</v>
       </c>
@@ -9822,8 +11768,11 @@
         <v>372</v>
       </c>
       <c r="I269" s="15"/>
-    </row>
-    <row r="270" spans="1:9">
+      <c r="J269" s="17"/>
+      <c r="K269" s="17"/>
+      <c r="L269" s="17"/>
+    </row>
+    <row r="270" spans="1:12">
       <c r="A270" s="15" t="s">
         <v>13</v>
       </c>
@@ -9851,8 +11800,11 @@
       <c r="I270" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="271" spans="1:9">
+      <c r="J270" s="17"/>
+      <c r="K270" s="17"/>
+      <c r="L270" s="17"/>
+    </row>
+    <row r="271" spans="1:12">
       <c r="A271" s="15" t="s">
         <v>13</v>
       </c>
@@ -9880,8 +11832,11 @@
       <c r="I271" s="15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="272" spans="1:9">
+      <c r="J271" s="17"/>
+      <c r="K271" s="17"/>
+      <c r="L271" s="17"/>
+    </row>
+    <row r="272" spans="1:12">
       <c r="A272" s="15" t="s">
         <v>13</v>
       </c>
@@ -9909,8 +11864,11 @@
       <c r="I272" s="15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="273" spans="1:9">
+      <c r="J272" s="17"/>
+      <c r="K272" s="17"/>
+      <c r="L272" s="17"/>
+    </row>
+    <row r="273" spans="1:12">
       <c r="A273" s="15" t="s">
         <v>13</v>
       </c>
@@ -9936,8 +11894,11 @@
         <v>542</v>
       </c>
       <c r="I273" s="15"/>
-    </row>
-    <row r="274" spans="1:9">
+      <c r="J273" s="17"/>
+      <c r="K273" s="17"/>
+      <c r="L273" s="17"/>
+    </row>
+    <row r="274" spans="1:12">
       <c r="A274" s="15" t="s">
         <v>13</v>
       </c>
@@ -9965,8 +11926,11 @@
       <c r="I274" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="275" spans="1:9">
+      <c r="J274" s="17"/>
+      <c r="K274" s="17"/>
+      <c r="L274" s="17"/>
+    </row>
+    <row r="275" spans="1:12">
       <c r="A275" s="15" t="s">
         <v>13</v>
       </c>
@@ -9994,8 +11958,11 @@
       <c r="I275" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="276" spans="1:9">
+      <c r="J275" s="17"/>
+      <c r="K275" s="17"/>
+      <c r="L275" s="17"/>
+    </row>
+    <row r="276" spans="1:12">
       <c r="A276" s="15" t="s">
         <v>13</v>
       </c>
@@ -10023,8 +11990,11 @@
       <c r="I276" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="277" spans="1:9">
+      <c r="J276" s="17"/>
+      <c r="K276" s="17"/>
+      <c r="L276" s="17"/>
+    </row>
+    <row r="277" spans="1:12">
       <c r="A277" s="15" t="s">
         <v>13</v>
       </c>
@@ -10050,8 +12020,11 @@
         <v>63</v>
       </c>
       <c r="I277" s="15"/>
-    </row>
-    <row r="278" spans="1:9">
+      <c r="J277" s="17"/>
+      <c r="K277" s="17"/>
+      <c r="L277" s="17"/>
+    </row>
+    <row r="278" spans="1:12">
       <c r="A278" s="15" t="s">
         <v>13</v>
       </c>
@@ -10079,8 +12052,11 @@
       <c r="I278" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="279" spans="1:9">
+      <c r="J278" s="17"/>
+      <c r="K278" s="17"/>
+      <c r="L278" s="17"/>
+    </row>
+    <row r="279" spans="1:12">
       <c r="A279" s="15" t="s">
         <v>13</v>
       </c>
@@ -10106,8 +12082,11 @@
         <v>338</v>
       </c>
       <c r="I279" s="15"/>
-    </row>
-    <row r="280" spans="1:9">
+      <c r="J279" s="17"/>
+      <c r="K279" s="17"/>
+      <c r="L279" s="17"/>
+    </row>
+    <row r="280" spans="1:12">
       <c r="A280" s="15" t="s">
         <v>13</v>
       </c>
@@ -10133,9 +12112,11 @@
         <v>476</v>
       </c>
       <c r="I280" s="15"/>
+      <c r="J280" s="17"/>
+      <c r="K280" s="17"/>
+      <c r="L280" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I280"/>
   <sortState ref="A2:AA1185">
     <sortCondition ref="A2:A1185"/>
     <sortCondition ref="B2:B1185"/>
